--- a/biology/Zoologie/Ischnura/Ischnura.xlsx
+++ b/biology/Zoologie/Ischnura/Ischnura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnura est un genre d'insectes odonates zygoptères (demoiselles) de la famille des Coenagrionidae.
 Noms vernaculaires français : les ischnures ou agrions (Le nom « agrion » désignant aussi d'autres genres).
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des espèces (et sous-espèces)
-Selon NCBI  (1 nov. 2010)[1] :
+          <t>Liste des espèces (et sous-espèces)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 nov. 2010) :
 Ischnura abyssinica
 Ischnura aralensis
 Ischnura asiatica
@@ -545,7 +562,7 @@
 Ischnura ramburii
 Ischnura senegalensis
 Ischnura verticalis
-Selon ITIS      (1 nov. 2010)[2] :
+Selon ITIS      (1 nov. 2010) :
 Ischnura barberi Currie, 1903
 Ischnura capreolus (Hagen, 1861)
 Ischnura cervula Selys, 1876
@@ -567,8 +584,43 @@
 Ischnura sobrina Schmidt, 1942
 Ischnura ultima Ris, 1908
 Ischnura verticalis (Say, 1839)
-Espèces rencontrées en Europe
-Selon Fauna Europaea                                      (9 mars 2015)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ischnura</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ischnura</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (9 mars 2015) :
 Ischnura elegans (Vander Linden 1820)
 Ischnura fountaineae Morton 1905
 Ischnura genei (Rambur 1842)
@@ -580,9 +632,44 @@
 			Ischnura elegans (mâle)
 			Ischnura elegans (femelle)
 			Accouplement d'Ischnura elegans en Brenne
-Espèces rencontrées en Polynésie française
-Ischnura jeanyvesmeyeri Englund &amp; Polhemus, 2010. Endémique de Raivavae (îles Australes)[4]
-Ischnura rurutana Englund &amp; Polhemus, 2010. Endémique de Rurutu (îles Australes)[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ischnura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ischnura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Polynésie française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ischnura jeanyvesmeyeri Englund &amp; Polhemus, 2010. Endémique de Raivavae (îles Australes)
+Ischnura rurutana Englund &amp; Polhemus, 2010. Endémique de Rurutu (îles Australes)
 Ischnura taitensis Selys, 1876 Syn Ischnura cheesmani Mumford, 1942.
 Ischnura thelmae Lieftinck, 1966. Endémique de Rapa (îles Australes)</t>
         </is>
